--- a/provincias/Cadiz.xlsx
+++ b/provincias/Cadiz.xlsx
@@ -503,7 +503,11 @@
           <t>https://www.todoslosayuntamientos.es/andalucia/cadiz/setenil-de-las-bodegas</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2026-01-20 08:25</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
